--- a/imageCreationExcel/back/107/107_11.xlsx
+++ b/imageCreationExcel/back/107/107_11.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,15 +495,15 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.111580385397982</v>
+        <v>1.076904420788259</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.6491076323936973</v>
+        <v>0.8003707256008417</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,14 +511,14 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>25.71144119824815</v>
+        <v>27.141835260326</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_P_contrast1.112_gamma0.649_equalization25.711.jpg</t>
+          <t>1_E_contrast1.077_sharpness0.8_equalization27.142.jpg</t>
         </is>
       </c>
     </row>
@@ -528,39 +528,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>24.58105937028903</v>
+        <v>1.099630791437149</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.6945685576994343</v>
+        <v>0.1625488379369819</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.05299319851927408</v>
+        <v>15.77230585433861</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_B_brightness24.581_gamma0.695_sharpness0.053.jpg</t>
+          <t>2_9_contrast1.1_sharpness0.163_equalization15.772.jpg</t>
         </is>
       </c>
     </row>
@@ -570,39 +570,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8750513564908527</v>
+        <v>14.33020793162596</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.6393345196965071</v>
+        <v>1.004273695137522</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>17.65962210932154</v>
+        <v>1.01585277576838</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_P_contrast0.875_sharpness0.639_equalization17.66.jpg</t>
+          <t>3_0_brightness14.33_contrast1.004_gamma1.016.jpg</t>
         </is>
       </c>
     </row>
@@ -612,24 +612,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8268499409941217</v>
+        <v>0.9540775243184766</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.8080518227602315</v>
+        <v>0.5893400877865762</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -637,14 +637,14 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>26.17103870564372</v>
+        <v>19.4021770788654</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_7_contrast0.827_gamma0.808_equalization26.171.jpg</t>
+          <t>4_8_gamma0.954_sharpness0.589_equalization19.402.jpg</t>
         </is>
       </c>
     </row>
@@ -654,16 +654,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.015227997793852</v>
+        <v>14.84616402531489</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.6993719140679684</v>
+        <v>1.038462183312308</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -679,14 +679,14 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.7983652256187527</v>
+        <v>0.7394274455849099</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_9_contrast1.015_gamma0.699_sharpness0.798.jpg</t>
+          <t>5_2_brightness14.846_gamma1.038_sharpness0.739.jpg</t>
         </is>
       </c>
     </row>
@@ -696,16 +696,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.106675281159803</v>
+        <v>0.694558783401823</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.9769067538145146</v>
+        <v>0.2458641710285945</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -721,14 +721,14 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>30.10057799010968</v>
+        <v>25.64250888447831</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_B_contrast1.107_sharpness0.977_equalization30.101.jpg</t>
+          <t>6_T_gamma0.695_sharpness0.246_equalization25.643.jpg</t>
         </is>
       </c>
     </row>
@@ -738,39 +738,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.8872462943316759</v>
+        <v>9.600413654477419</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.67969897826026</v>
+        <v>0.9921769134943912</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.6585178552159299</v>
+        <v>0.7815961062873077</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_T_contrast0.887_gamma0.68_sharpness0.659.jpg</t>
+          <t>7_B_brightness9.6_contrast0.992_gamma0.782.jpg</t>
         </is>
       </c>
     </row>
@@ -780,39 +780,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.120709163858736</v>
+        <v>3.073713801854664</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.0823621098556465</v>
+        <v>0.7527113799334685</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>13.50315970149187</v>
+        <v>0.9311774044587815</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_C_contrast1.121_sharpness0.082_equalization13.503.jpg</t>
+          <t>8_B_brightness3.074_gamma0.753_sharpness0.931.jpg</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,30 +831,30 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>18.75163314782559</v>
+        <v>2.783260475562855</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.9353290427223</v>
+        <v>0.5869024052655556</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.8561579370832579</v>
+        <v>0.6648769139738857</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_2_brightness18.752_contrast0.935_gamma0.856.jpg</t>
+          <t>9_9_brightness2.783_gamma0.587_sharpness0.665.jpg</t>
         </is>
       </c>
     </row>
@@ -864,39 +864,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.7267992037840717</v>
+        <v>29.35509940732091</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.40477156373928</v>
+        <v>0.8679071093215013</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>31.35234976393499</v>
+        <v>0.1682832470280544</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_2_gamma0.727_sharpness0.405_equalization31.352.jpg</t>
+          <t>10_1_brightness29.355_gamma0.868_sharpness0.168.jpg</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3.896287524681141</v>
+        <v>18.35967874752728</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -923,22 +923,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.045397440122783</v>
+        <v>1.147595559779957</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.8934976730796225</v>
+        <v>0.4114991031185868</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_E_brightness3.896_contrast1.045_gamma0.893.jpg</t>
+          <t>11_S_brightness18.36_contrast1.148_sharpness0.411.jpg</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -957,15 +957,15 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>26.30744598998665</v>
+        <v>22.63894604414538</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.9456228273414212</v>
+        <v>0.7969742899324919</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -973,14 +973,14 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.400730378147853</v>
+        <v>0.536169584263495</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_1_brightness26.307_contrast0.946_sharpness0.401.jpg</t>
+          <t>12_9_brightness22.639_gamma0.797_sharpness0.536.jpg</t>
         </is>
       </c>
     </row>
@@ -990,16 +990,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6.392864488868629</v>
+        <v>0.9320687826154327</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.9614750598533136</v>
+        <v>0.6962661603026357</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1015,14 +1015,14 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.8783848190893242</v>
+        <v>0.966361982380247</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_3_brightness6.393_gamma0.961_sharpness0.878.jpg</t>
+          <t>13_I_contrast0.932_gamma0.696_sharpness0.966.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,16 +1032,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.162534027185486</v>
+        <v>9.82483160886224</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.7855666409324826</v>
+        <v>0.6116463050175026</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1057,14 +1057,14 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.9833642688788836</v>
+        <v>0.2130986111862044</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_P_contrast1.163_gamma0.786_sharpness0.983.jpg</t>
+          <t>14_C_brightness9.825_gamma0.612_sharpness0.213.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,39 +1074,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.8611764361800949</v>
+        <v>15.76232634484877</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.7949030389275116</v>
+        <v>0.8238317690890842</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>21.74298910173789</v>
+        <v>1.097875865595004</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_C_contrast0.861_sharpness0.795_equalization21.743.jpg</t>
+          <t>15_I_brightness15.762_contrast0.824_gamma1.098.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,39 +1116,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.9638654768112682</v>
+        <v>18.90896967793272</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.3037673910035169</v>
+        <v>1.07141247765635</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>26.56786745115118</v>
+        <v>0.844689646509782</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_1_contrast0.964_sharpness0.304_equalization26.568.jpg</t>
+          <t>16_8_brightness18.909_contrast1.071_gamma0.845.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,16 +1158,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.9724304602052182</v>
+        <v>0.7950467941480667</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.1924566635230366</v>
+        <v>0.8347099340595336</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>29.12874833665239</v>
+        <v>14.87981593372665</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_2_contrast0.972_sharpness0.192_equalization29.129.jpg</t>
+          <t>17_C_gamma0.795_sharpness0.835_equalization14.88.jpg</t>
         </is>
       </c>
     </row>
@@ -1205,19 +1205,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.9687442101050352</v>
+        <v>3.424291553413249</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.8573295435916612</v>
+        <v>0.8870679949031195</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1225,14 +1225,14 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.2171551796650353</v>
+        <v>0.6609697273116906</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_E_contrast0.969_gamma0.857_sharpness0.217.jpg</t>
+          <t>18_E_brightness3.424_contrast0.887_sharpness0.661.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,39 +1242,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>29.77932817110025</v>
+        <v>0.7688809970346411</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.5719363464285603</v>
+        <v>0.872153026060418</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.412017165010962</v>
+        <v>20.36116433850244</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_1_brightness29.779_gamma0.572_sharpness0.412.jpg</t>
+          <t>19_P_gamma0.769_sharpness0.872_equalization20.361.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,39 +1284,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.7030588037004637</v>
+        <v>0.7179040370865665</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.5196616795609269</v>
+        <v>0.48967225177651</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.3200417257825589</v>
+        <v>30.82445194069976</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_E_brightness0.703_gamma0.52_sharpness0.32.jpg</t>
+          <t>20_8_gamma0.718_sharpness0.49_equalization30.824.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,16 +1326,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.9046024998035819</v>
+        <v>1.050083685240748</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.8871288998769857</v>
+        <v>0.339232794449652</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1351,14 +1351,14 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>20.33140704680477</v>
+        <v>23.48998595327366</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_3_gamma0.905_sharpness0.887_equalization20.331.jpg</t>
+          <t>21_T_contrast1.05_sharpness0.339_equalization23.49.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1377,30 +1377,30 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>22.6610924689951</v>
+        <v>8.799879097077111</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.8894422816310403</v>
+        <v>1.063896763556058</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.6925272291642806</v>
+        <v>0.8196407081467803</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_8_brightness22.661_gamma0.889_sharpness0.693.jpg</t>
+          <t>22_9_brightness8.8_contrast1.064_gamma0.82.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,39 +1410,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>14.79289781560323</v>
+        <v>1.173469580864988</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.8408274616101807</v>
+        <v>0.2465522781439582</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.317257779441682</v>
+        <v>24.68540372721932</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_2_brightness14.793_contrast0.841_sharpness0.317.jpg</t>
+          <t>23_C_contrast1.173_sharpness0.247_equalization24.685.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,24 +1452,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.095439702893172</v>
+        <v>0.9831897186047345</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.3384732982566122</v>
+        <v>0.8336301854814829</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1477,14 +1477,14 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>18.54588948773982</v>
+        <v>14.82796251628112</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_T_gamma1.095_sharpness0.338_equalization18.546.jpg</t>
+          <t>24_C_contrast0.983_gamma0.834_equalization14.828.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,39 +1494,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.9849963148889165</v>
+        <v>3.933965199261196</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.9540456801816142</v>
+        <v>0.9858682214253558</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>22.01498285624507</v>
+        <v>0.9949098690287623</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_B_gamma0.985_sharpness0.954_equalization22.015.jpg</t>
+          <t>25_3_brightness3.934_gamma0.986_sharpness0.995.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,24 +1536,24 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.9395818942527052</v>
+        <v>15.14828915423982</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.910875926989741</v>
+        <v>1.142751878424045</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1561,14 +1561,14 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.1195534417846024</v>
+        <v>0.0106576701728699</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_9_contrast0.94_gamma0.911_sharpness0.12.jpg</t>
+          <t>26_8_brightness15.148_contrast1.143_sharpness0.011.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>12.89389601459308</v>
+        <v>11.66561696614398</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1595,22 +1595,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.092580748193937</v>
+        <v>0.8402871233117034</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.4790114563572063</v>
+        <v>1.074474135937744</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_T_brightness12.894_contrast1.093_sharpness0.479.jpg</t>
+          <t>27_1_brightness11.666_contrast0.84_gamma1.074.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1629,30 +1629,30 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6.893134356841114</v>
+        <v>19.36082077191899</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.5934185699629639</v>
+        <v>0.9546828900206834</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.8935720207548689</v>
+        <v>0.8492992886993604</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_E_brightness6.893_gamma0.593_sharpness0.894.jpg</t>
+          <t>28_B_brightness19.361_contrast0.955_gamma0.849.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,24 +1662,24 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.061293207962138</v>
+        <v>1.049577227831585</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.7544317861857897</v>
+        <v>0.6283214030964984</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1687,14 +1687,14 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>31.58369651644989</v>
+        <v>14.7206542206624</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_7_contrast1.061_gamma0.754_equalization31.584.jpg</t>
+          <t>29_1_gamma1.05_sharpness0.628_equalization14.721.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,24 +1704,24 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>10.91824483478594</v>
+        <v>1.003794204313371</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.128832305601323</v>
+        <v>1.031091247996291</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1729,14 +1729,14 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.2824735933763671</v>
+        <v>0.09144134149074086</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_I_brightness10.918_contrast1.129_sharpness0.282.jpg</t>
+          <t>30_7_contrast1.004_gamma1.031_sharpness0.091.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1755,7 +1755,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.113770387466052</v>
+        <v>0.8066352315911782</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.9243863893340762</v>
+        <v>0.4712461899568981</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1771,14 +1771,14 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>15.62033072743076</v>
+        <v>6.177457766552768</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_C_contrast1.114_sharpness0.924_equalization15.62.jpg</t>
+          <t>31_3_contrast0.807_sharpness0.471_equalization6.177.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,39 +1788,39 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.8930750172679215</v>
+        <v>26.94891691083034</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.5545400762663955</v>
+        <v>0.8278323085664128</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>22.03236489432631</v>
+        <v>0.766283134741476</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_B_contrast0.893_sharpness0.555_equalization22.032.jpg</t>
+          <t>32_1_brightness26.949_contrast0.828_sharpness0.766.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1839,15 +1839,15 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>16.35400102893756</v>
+        <v>28.15113403859261</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.8571770941746261</v>
+        <v>0.750422583379044</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1855,14 +1855,14 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.4279154296507574</v>
+        <v>0.8211991620928669</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_T_brightness16.354_contrast0.857_sharpness0.428.jpg</t>
+          <t>33_0_brightness28.151_gamma0.75_sharpness0.821.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1881,30 +1881,30 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.8365887394217658</v>
+        <v>1.019626384517316</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.9621594124486473</v>
+        <v>1.099181187486154</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>16.7492724465214</v>
+        <v>0.9089648170828414</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_1_contrast0.837_sharpness0.962_equalization16.749.jpg</t>
+          <t>34_7_contrast1.02_gamma1.099_sharpness0.909.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,39 +1914,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.148724757984045</v>
+        <v>1.077988565547923</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.7283014703832593</v>
+        <v>0.410921968279432</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.8831113965317293</v>
+        <v>24.53191548690758</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_3_brightness1.149_gamma0.728_sharpness0.883.jpg</t>
+          <t>35_C_gamma1.078_sharpness0.411_equalization24.532.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,39 +1956,39 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.56647329786633</v>
+        <v>1.041322376035484</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.6762438854073343</v>
+        <v>1.087320712965702</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>13.6246848340982</v>
+        <v>0.1800558864076415</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_3_gamma0.566_sharpness0.676_equalization13.625.jpg</t>
+          <t>36_C_contrast1.041_gamma1.087_sharpness0.18.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,39 +1998,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1.132211079358088</v>
+        <v>23.5782552493007</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.8203386507407006</v>
+        <v>1.054245706253254</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>14.68295487357789</v>
+        <v>0.6396977579850422</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_9_contrast1.132_sharpness0.82_equalization14.683.jpg</t>
+          <t>37_I_brightness23.578_contrast1.054_gamma0.64.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2049,7 +2049,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.5212997305924454</v>
+        <v>0.5426528348733026</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.6860802782949047</v>
+        <v>0.904928519392634</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2065,14 +2065,14 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>21.13230799637983</v>
+        <v>15.3726271389505</v>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_S_gamma0.521_sharpness0.686_equalization21.132.jpg</t>
+          <t>38_2_gamma0.543_sharpness0.905_equalization15.373.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,39 +2082,39 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>16.81259438177501</v>
+        <v>1.187067672607325</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.092449400383282</v>
+        <v>0.4514054479749051</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.8320532602933211</v>
+        <v>23.26142589033121</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_9_brightness16.813_gamma1.092_sharpness0.832.jpg</t>
+          <t>39_S_contrast1.187_sharpness0.451_equalization23.261.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.8658438186609485</v>
+        <v>0.9876329927078109</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2141,22 +2141,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.883247974558244</v>
+        <v>0.9533473575130441</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>25.51166955583396</v>
+        <v>0.2618490265547632</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_2_contrast0.866_gamma0.883_equalization25.512.jpg</t>
+          <t>40_9_contrast0.988_gamma0.953_sharpness0.262.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1.002107769429934</v>
+        <v>1.008044400944674</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.647506696772117</v>
+        <v>0.6849095754678823</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2191,14 +2191,14 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>21.04221405408863</v>
+        <v>18.89824031526566</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_3_contrast1.002_gamma0.648_equalization21.042.jpg</t>
+          <t>41_E_contrast1.008_gamma0.685_equalization18.898.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2217,30 +2217,30 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>28.43665699349124</v>
+        <v>23.84128537283368</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.070784377466366</v>
+        <v>1.036376493887538</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.7609433332896586</v>
+        <v>0.9329487921326272</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_T_brightness28.437_gamma1.071_sharpness0.761.jpg</t>
+          <t>42_I_brightness23.841_contrast1.036_gamma0.933.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,39 +2250,39 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>14.1391534318586</v>
+        <v>0.9403071191133002</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.9270364316009354</v>
+        <v>0.9281959316005239</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.8098223190862991</v>
+        <v>21.26486458292627</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_P_brightness14.139_gamma0.927_sharpness0.81.jpg</t>
+          <t>43_0_contrast0.94_sharpness0.928_equalization21.265.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,39 +2292,39 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.9821367308925085</v>
+        <v>21.84367564810122</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.2987014381250872</v>
+        <v>1.033138571273877</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>10.92386849073555</v>
+        <v>0.4739284786835686</v>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_9_contrast0.982_sharpness0.299_equalization10.924.jpg</t>
+          <t>44_P_brightness21.844_contrast1.033_sharpness0.474.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,39 +2334,39 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>22.58775608313284</v>
+        <v>1.005682277107804</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.035022854768008</v>
+        <v>0.9495443899061091</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.9909476997025642</v>
+        <v>0.697035280363334</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_7_brightness22.588_contrast1.035_gamma0.991.jpg</t>
+          <t>45_P_contrast1.006_gamma0.95_sharpness0.697.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,39 +2376,39 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>10.16413228404399</v>
+        <v>1.132368756126966</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.090436110554102</v>
+        <v>0.6400440103354437</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1.014089642495033</v>
+        <v>14.38595693488748</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_E_brightness10.164_contrast1.09_gamma1.014.jpg</t>
+          <t>46_B_contrast1.132_gamma0.64_equalization14.386.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>22.27886419253431</v>
+        <v>3.518717574301386</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.5126097708643227</v>
+        <v>0.6129268307701417</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2443,14 +2443,14 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.1424302952245506</v>
+        <v>0.9780971757329129</v>
       </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_3_brightness22.279_gamma0.513_sharpness0.142.jpg</t>
+          <t>47_E_brightness3.519_gamma0.613_sharpness0.978.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2469,7 +2469,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1.194968209690097</v>
+        <v>0.8079150464645334</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2477,22 +2477,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.7903432117802228</v>
+        <v>0.6956633322914925</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.2650297473344349</v>
+        <v>8.714735810124314</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_T_contrast1.195_gamma0.79_sharpness0.265.jpg</t>
+          <t>48_9_contrast0.808_gamma0.696_equalization8.715.jpg</t>
         </is>
       </c>
     </row>
